--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业工程结算利润.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业工程结算利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.4695</v>
+        <v>6428.0206</v>
       </c>
       <c r="C2" t="n">
-        <v>415.0534</v>
+        <v>1051.7176</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2281</v>
+        <v>45.3262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2891</v>
+        <v>21.6436</v>
       </c>
       <c r="F2" t="n">
-        <v>943.5590999999999</v>
+        <v>6515.0138</v>
       </c>
       <c r="G2" t="n">
-        <v>9.861499999999999</v>
+        <v>41.6671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.975</v>
+        <v>6.7986</v>
       </c>
       <c r="I2" t="n">
-        <v>248.9144</v>
+        <v>288.0022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1139.7553</v>
+        <v>3747.65895</v>
       </c>
       <c r="C3" t="n">
-        <v>422.9005</v>
+        <v>402.88334</v>
       </c>
       <c r="D3" t="n">
-        <v>7.2306</v>
+        <v>28.32749</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2343</v>
+        <v>15.03163</v>
       </c>
       <c r="F3" t="n">
-        <v>1159.6329</v>
+        <v>3799.17947</v>
       </c>
       <c r="G3" t="n">
-        <v>12.647</v>
+        <v>23.19303</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0686</v>
+        <v>4.88367</v>
       </c>
       <c r="I3" t="n">
-        <v>236.653</v>
+        <v>156.3283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1372.467</v>
+        <v>4441.84791</v>
       </c>
       <c r="C4" t="n">
-        <v>440.6364</v>
+        <v>463.78005</v>
       </c>
       <c r="D4" t="n">
-        <v>9.450900000000001</v>
+        <v>24.98064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>15.51411</v>
       </c>
       <c r="F4" t="n">
-        <v>1395.0478</v>
+        <v>4495.27106</v>
       </c>
       <c r="G4" t="n">
-        <v>13.1299</v>
+        <v>28.44251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6494</v>
+        <v>7.16321</v>
       </c>
       <c r="I4" t="n">
-        <v>235.6879</v>
+        <v>180.04251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.9606</v>
+        <v>6073.05158</v>
       </c>
       <c r="C5" t="n">
-        <v>441.6532</v>
+        <v>498.3498</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2408</v>
+        <v>38.72555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4219</v>
+        <v>29.23948</v>
       </c>
       <c r="F5" t="n">
-        <v>1674.0685</v>
+        <v>6133.23586</v>
       </c>
       <c r="G5" t="n">
-        <v>12.8671</v>
+        <v>21.45873</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6733</v>
+        <v>4.62472</v>
       </c>
       <c r="I5" t="n">
-        <v>231.6727</v>
+        <v>176.75678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326.34128</v>
+        <v>6125.52928</v>
       </c>
       <c r="C6" t="n">
-        <v>574.44476</v>
+        <v>573.01179</v>
       </c>
       <c r="D6" t="n">
-        <v>30.82962</v>
+        <v>31.86484</v>
       </c>
       <c r="E6" t="n">
-        <v>5.69754</v>
+        <v>22.49017</v>
       </c>
       <c r="F6" t="n">
-        <v>2372.61361</v>
+        <v>6183.54878</v>
       </c>
       <c r="G6" t="n">
-        <v>15.44271</v>
+        <v>26.15466</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62057</v>
+        <v>5.77482</v>
       </c>
       <c r="I6" t="n">
-        <v>199.0331</v>
+        <v>164.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2758.84718</v>
+        <v>6688.22234</v>
       </c>
       <c r="C7" t="n">
-        <v>579.5543699999999</v>
+        <v>567.1457</v>
       </c>
       <c r="D7" t="n">
-        <v>32.77866</v>
+        <v>29.65652</v>
       </c>
       <c r="E7" t="n">
-        <v>15.3665</v>
+        <v>24.54762</v>
       </c>
       <c r="F7" t="n">
-        <v>2809.89933</v>
+        <v>6745.07795</v>
       </c>
       <c r="G7" t="n">
-        <v>18.27349</v>
+        <v>27.19909</v>
       </c>
       <c r="H7" t="n">
-        <v>2.50659</v>
+        <v>6.50549</v>
       </c>
       <c r="I7" t="n">
-        <v>203.85254</v>
+        <v>164.28967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3291.95092</v>
+        <v>7178.52725</v>
       </c>
       <c r="C8" t="n">
-        <v>643.11936</v>
+        <v>660.68585</v>
       </c>
       <c r="D8" t="n">
-        <v>51.45756</v>
+        <v>29.48242</v>
       </c>
       <c r="E8" t="n">
-        <v>23.84725</v>
+        <v>20.29834</v>
       </c>
       <c r="F8" t="n">
-        <v>3365.72837</v>
+        <v>7245.76257</v>
       </c>
       <c r="G8" t="n">
-        <v>22.31989</v>
+        <v>37.7529</v>
       </c>
       <c r="H8" t="n">
-        <v>4.48545</v>
+        <v>4.89872</v>
       </c>
       <c r="I8" t="n">
-        <v>224.77436</v>
+        <v>145.9726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4414.88252</v>
+        <v>7705.66226</v>
       </c>
       <c r="C9" t="n">
-        <v>838.76222</v>
+        <v>769.48231</v>
       </c>
       <c r="D9" t="n">
-        <v>45.97329</v>
+        <v>49.08237</v>
       </c>
       <c r="E9" t="n">
-        <v>21.69908</v>
+        <v>33.73699</v>
       </c>
       <c r="F9" t="n">
-        <v>4490.68805</v>
+        <v>7788.58802</v>
       </c>
       <c r="G9" t="n">
-        <v>29.83224</v>
+        <v>33.84339</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5701</v>
+        <v>11.11359</v>
       </c>
       <c r="I9" t="n">
-        <v>267.55412</v>
+        <v>128.04257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5141.18733</v>
+        <v>7814.15333</v>
       </c>
       <c r="C10" t="n">
-        <v>922.95383</v>
+        <v>843.03378</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5738</v>
+        <v>51.43945</v>
       </c>
       <c r="E10" t="n">
-        <v>16.85084</v>
+        <v>37.19138</v>
       </c>
       <c r="F10" t="n">
-        <v>5217.894</v>
+        <v>7911.00698</v>
       </c>
       <c r="G10" t="n">
-        <v>33.13287</v>
+        <v>45.4142</v>
       </c>
       <c r="H10" t="n">
-        <v>7.16685</v>
+        <v>13.02719</v>
       </c>
       <c r="I10" t="n">
-        <v>268.99014</v>
+        <v>104.81771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6428.0206</v>
+        <v>8048.38771</v>
       </c>
       <c r="C11" t="n">
-        <v>1051.7176</v>
+        <v>1036.04841</v>
       </c>
       <c r="D11" t="n">
-        <v>45.3262</v>
+        <v>71.0812</v>
       </c>
       <c r="E11" t="n">
-        <v>21.6436</v>
+        <v>26.89044</v>
       </c>
       <c r="F11" t="n">
-        <v>6515.0138</v>
+        <v>8187.4129</v>
       </c>
       <c r="G11" t="n">
-        <v>41.6671</v>
+        <v>67.94399</v>
       </c>
       <c r="H11" t="n">
-        <v>6.7986</v>
+        <v>20.02558</v>
       </c>
       <c r="I11" t="n">
-        <v>288.0022</v>
+        <v>97.63293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3747.65895</v>
+        <v>8125.81754</v>
       </c>
       <c r="C12" t="n">
-        <v>402.88334</v>
+        <v>1010.60081</v>
       </c>
       <c r="D12" t="n">
-        <v>28.32749</v>
+        <v>7.94467</v>
       </c>
       <c r="E12" t="n">
-        <v>15.03163</v>
+        <v>27.49555</v>
       </c>
       <c r="F12" t="n">
-        <v>3799.17947</v>
+        <v>8193.19623</v>
       </c>
       <c r="G12" t="n">
-        <v>23.19303</v>
+        <v>59.43402</v>
       </c>
       <c r="H12" t="n">
-        <v>4.88367</v>
+        <v>10.78759</v>
       </c>
       <c r="I12" t="n">
-        <v>156.3283</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4441.84791</v>
-      </c>
-      <c r="C13" t="n">
-        <v>463.78005</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24.98064</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15.51411</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4495.27106</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28.44251</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.16321</v>
-      </c>
-      <c r="I13" t="n">
-        <v>180.04251</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6073.05158</v>
-      </c>
-      <c r="C14" t="n">
-        <v>498.3498</v>
-      </c>
-      <c r="D14" t="n">
-        <v>38.72555</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.23948</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6133.23586</v>
-      </c>
-      <c r="G14" t="n">
-        <v>21.45873</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.62472</v>
-      </c>
-      <c r="I14" t="n">
-        <v>176.75678</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6125.52928</v>
-      </c>
-      <c r="C15" t="n">
-        <v>573.01179</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.86484</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22.49017</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6183.54878</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26.15466</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.77482</v>
-      </c>
-      <c r="I15" t="n">
-        <v>164.1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6688.22234</v>
-      </c>
-      <c r="C16" t="n">
-        <v>567.1457</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29.65652</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24.54762</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6745.07795</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27.19909</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6.50549</v>
-      </c>
-      <c r="I16" t="n">
-        <v>164.28967</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7178.52725</v>
-      </c>
-      <c r="C17" t="n">
-        <v>660.68585</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29.48242</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20.29834</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7245.76257</v>
-      </c>
-      <c r="G17" t="n">
-        <v>37.7529</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.89872</v>
-      </c>
-      <c r="I17" t="n">
-        <v>145.9726</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7705.66226</v>
-      </c>
-      <c r="C18" t="n">
-        <v>769.48231</v>
-      </c>
-      <c r="D18" t="n">
-        <v>49.08237</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33.73699</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7788.58802</v>
-      </c>
-      <c r="G18" t="n">
-        <v>33.84339</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11.11359</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128.04257</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7814.15333</v>
-      </c>
-      <c r="C19" t="n">
-        <v>843.03378</v>
-      </c>
-      <c r="D19" t="n">
-        <v>51.43945</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37.19138</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7911.00698</v>
-      </c>
-      <c r="G19" t="n">
-        <v>45.4142</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13.02719</v>
-      </c>
-      <c r="I19" t="n">
-        <v>104.81771</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8048.38771</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1036.04841</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.0812</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.89044</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8187.4129</v>
-      </c>
-      <c r="G20" t="n">
-        <v>67.94399</v>
-      </c>
-      <c r="H20" t="n">
-        <v>20.02558</v>
-      </c>
-      <c r="I20" t="n">
-        <v>97.63293</v>
+        <v>88.97162</v>
       </c>
     </row>
   </sheetData>
